--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -454,10 +478,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -501,28 +525,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="3">
+      <c r="A13" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="3">
+      <c r="C13" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="3">
+      <c r="E13" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="3">
+      <c r="F13" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="3">
+      <c r="G13" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="3">
+      <c r="H13" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -547,28 +571,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="3">
+      <c r="B15" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="3">
+      <c r="C15" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="D15" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="E15" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="3">
+      <c r="F15" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="3">
+      <c r="G15" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="3">
+      <c r="H15" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="3">
+      <c r="I15" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -743,10 +767,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="J21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -790,28 +814,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="3">
+      <c r="A23" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="3">
+      <c r="B23" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="3">
+      <c r="C23" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="E23" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="3">
+      <c r="F23" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="3">
+      <c r="G23" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="3">
+      <c r="H23" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -836,28 +860,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="3">
+      <c r="B25" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="3">
+      <c r="C25" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="3">
+      <c r="D25" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="3">
+      <c r="F25" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="3">
+      <c r="G25" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="3">
+      <c r="H25" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="3">
+      <c r="I25" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -974,10 +998,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1021,28 +1045,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="3">
+      <c r="A31" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="3">
+      <c r="C31" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1067,28 +1091,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="3">
+      <c r="I33" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1263,10 +1287,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="J39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1310,28 +1334,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="3">
+      <c r="A41" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="3">
+      <c r="C41" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1356,28 +1380,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="3">
+      <c r="B43" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="3">
+      <c r="C43" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="3">
+      <c r="D43" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="3">
+      <c r="F43" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="3">
+      <c r="G43" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="3">
+      <c r="H43" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="3">
+      <c r="I43" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1639,10 +1663,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="3" t="s">
+      <c r="J52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1686,28 +1710,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="3">
+      <c r="A54" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="3">
+      <c r="B54" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="3">
+      <c r="C54" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="3">
+      <c r="F54" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="3">
+      <c r="G54" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="3">
+      <c r="H54" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1732,28 +1756,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="3">
+      <c r="C56" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="3">
+      <c r="D56" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="3">
+      <c r="I56" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1841,10 +1865,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="3" t="s">
+      <c r="J59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1888,28 +1912,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="3">
+      <c r="A61" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="3">
+      <c r="C61" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1934,28 +1958,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="3">
+      <c r="B63" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="3">
+      <c r="C63" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="3">
+      <c r="D63" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="3">
+      <c r="F63" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="3">
+      <c r="G63" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="3">
+      <c r="I63" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2014,10 +2038,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="3" t="s">
+      <c r="J65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2061,28 +2085,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="3">
+      <c r="A67" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="3">
+      <c r="B67" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="3">
+      <c r="C67" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="3">
+      <c r="F67" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="3">
+      <c r="G67" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="3">
+      <c r="H67" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2107,28 +2131,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="3">
+      <c r="B69" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="3">
+      <c r="C69" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="3">
+      <c r="D69" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="3">
+      <c r="F69" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="3">
+      <c r="G69" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="3">
+      <c r="H69" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="3">
+      <c r="I69" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2216,10 +2240,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="3" t="s">
+      <c r="J72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2263,28 +2287,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="3">
+      <c r="A74" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="3">
+      <c r="C74" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2309,28 +2333,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="3">
+      <c r="C76" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="3">
+      <c r="D76" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="3">
+      <c r="I76" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2389,10 +2413,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="3" t="s">
+      <c r="J78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2436,28 +2460,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="3">
+      <c r="A80" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="3">
+      <c r="C80" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2482,28 +2506,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="3">
+      <c r="I82" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2678,10 +2702,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="3" t="s">
+      <c r="J88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2725,28 +2749,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="3">
+      <c r="A90" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="3">
+      <c r="C90" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2771,28 +2795,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="3">
+      <c r="C92" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="3">
+      <c r="D92" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="3">
+      <c r="I92" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2909,10 +2933,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="3" t="s">
+      <c r="J96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2956,28 +2980,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="3">
+      <c r="A98" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="3">
+      <c r="B98" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="3">
+      <c r="C98" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="3">
+      <c r="E98" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="3">
+      <c r="F98" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="3">
+      <c r="G98" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="3">
+      <c r="H98" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3002,28 +3026,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="3">
+      <c r="B100" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="3">
+      <c r="C100" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="3">
+      <c r="D100" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="3">
+      <c r="F100" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="3">
+      <c r="G100" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="3">
+      <c r="H100" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="3">
+      <c r="I100" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3111,10 +3135,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="3" t="s">
+      <c r="J103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3158,28 +3182,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="3">
+      <c r="A105" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="3">
+      <c r="C105" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3204,28 +3228,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="3">
+      <c r="C107" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="3">
+      <c r="D107" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="3">
+      <c r="I107" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3342,10 +3366,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="3" t="s">
+      <c r="J111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3389,28 +3413,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="3">
+      <c r="A113" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="3">
+      <c r="C113" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3435,28 +3459,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="3">
+      <c r="C115" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="3">
+      <c r="D115" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="3">
+      <c r="I115" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3631,10 +3655,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="3" t="s">
+      <c r="J121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3678,28 +3702,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="3">
+      <c r="A123" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="3">
+      <c r="B123" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="3">
+      <c r="C123" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="3">
+      <c r="F123" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="3">
+      <c r="G123" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="3">
+      <c r="H123" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3724,28 +3748,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="3">
+      <c r="B125" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="3">
+      <c r="C125" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="3">
+      <c r="D125" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="3">
+      <c r="F125" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="3">
+      <c r="G125" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="3">
+      <c r="H125" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="3">
+      <c r="I125" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3862,10 +3886,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="3" t="s">
+      <c r="J129" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3909,28 +3933,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="3">
+      <c r="A131" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="3">
+      <c r="C131" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3955,28 +3979,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="3">
+      <c r="C133" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="3">
+      <c r="D133" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="3">
+      <c r="I133" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4093,10 +4117,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="3" t="s">
+      <c r="J137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4140,28 +4164,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="3">
+      <c r="A139" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="3">
+      <c r="C139" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4186,28 +4210,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="3">
+      <c r="C141" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="3">
+      <c r="D141" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="3">
+      <c r="I141" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4266,10 +4290,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="3" t="s">
+      <c r="J143" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4313,28 +4337,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="3">
+      <c r="A145" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="3">
+      <c r="C145" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4359,28 +4383,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="3">
+      <c r="C147" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="3">
+      <c r="D147" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="3">
+      <c r="I147" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4613,10 +4637,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="3" t="s">
+      <c r="J155" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4660,28 +4684,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="3">
+      <c r="A157" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="3">
+      <c r="B157" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="3">
+      <c r="C157" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="3">
+      <c r="F157" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="3">
+      <c r="G157" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="3">
+      <c r="H157" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4706,28 +4730,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="3">
+      <c r="C159" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="3">
+      <c r="D159" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="3">
+      <c r="I159" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4844,10 +4868,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="3" t="s">
+      <c r="J163" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4891,28 +4915,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="3">
+      <c r="A165" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="3">
+      <c r="B165" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="3">
+      <c r="C165" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="3">
+      <c r="E165" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="3">
+      <c r="F165" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="3">
+      <c r="G165" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="3">
+      <c r="H165" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4937,28 +4961,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="3">
+      <c r="B167" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="3">
+      <c r="C167" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="3">
+      <c r="D167" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="3">
+      <c r="E167" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="3">
+      <c r="F167" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="3">
+      <c r="G167" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="3">
+      <c r="H167" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="3">
+      <c r="I167" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5075,10 +5099,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="3" t="s">
+      <c r="J171" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5122,28 +5146,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="3">
+      <c r="A173" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="3">
+      <c r="C173" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5168,28 +5192,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="3">
+      <c r="C175" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="3">
+      <c r="D175" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="3">
+      <c r="I175" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5451,10 +5475,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="3" t="s">
+      <c r="J184" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5498,28 +5522,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="3">
+      <c r="A186" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="3">
+      <c r="B186" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="3">
+      <c r="C186" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="3">
+      <c r="E186" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="3">
+      <c r="F186" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="3">
+      <c r="G186" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="3">
+      <c r="H186" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5544,28 +5568,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="3">
+      <c r="B188" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="3">
+      <c r="C188" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="3">
+      <c r="D188" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="3">
+      <c r="E188" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="3">
+      <c r="F188" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="3">
+      <c r="G188" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="3">
+      <c r="H188" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="3">
+      <c r="I188" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5682,10 +5706,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="3" t="s">
+      <c r="J192" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5729,28 +5753,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="3">
+      <c r="A194" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="3">
+      <c r="C194" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5775,28 +5799,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="3">
+      <c r="B196" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="3">
+      <c r="C196" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="3">
+      <c r="D196" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="3">
+      <c r="E196" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="3">
+      <c r="F196" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="3">
+      <c r="G196" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="3">
+      <c r="H196" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="3">
+      <c r="I196" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5913,10 +5937,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="3" t="s">
+      <c r="J200" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5960,28 +5984,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="3">
+      <c r="A202" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="3">
+      <c r="C202" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6006,28 +6030,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="3">
+      <c r="B204" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="3">
+      <c r="C204" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="3">
+      <c r="D204" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="3">
+      <c r="E204" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="3">
+      <c r="F204" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="3">
+      <c r="G204" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="3">
+      <c r="H204" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="3">
+      <c r="I204" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6202,10 +6226,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="3" t="s">
+      <c r="J210" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6249,28 +6273,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="3">
+      <c r="A212" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="3">
+      <c r="B212" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="3">
+      <c r="C212" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="3">
+      <c r="E212" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="3">
+      <c r="F212" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="3">
+      <c r="G212" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="3">
+      <c r="H212" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6295,28 +6319,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="3">
+      <c r="C214" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="3">
+      <c r="D214" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="3">
+      <c r="I214" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6375,10 +6399,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="3" t="s">
+      <c r="J216" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6422,28 +6446,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="3">
+      <c r="A218" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="3">
+      <c r="B218" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="3">
+      <c r="C218" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="3">
+      <c r="E218" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="3">
+      <c r="F218" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="3">
+      <c r="G218" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="3">
+      <c r="H218" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6468,28 +6492,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="3">
+      <c r="B220" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="3">
+      <c r="C220" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="3">
+      <c r="D220" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="3">
+      <c r="E220" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="3">
+      <c r="F220" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="3">
+      <c r="G220" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="3">
+      <c r="H220" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="3">
+      <c r="I220" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6693,10 +6717,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="3" t="s">
+      <c r="J227" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6740,28 +6764,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="3">
+      <c r="A229" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="3">
+      <c r="B229" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="3">
+      <c r="C229" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="3">
+      <c r="E229" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="3">
+      <c r="F229" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="3">
+      <c r="G229" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="3">
+      <c r="H229" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6786,28 +6810,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="3">
+      <c r="B231" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="3">
+      <c r="C231" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="3">
+      <c r="D231" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="3">
+      <c r="E231" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="3">
+      <c r="F231" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="3">
+      <c r="G231" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="3">
+      <c r="H231" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="3">
+      <c r="I231" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6895,10 +6919,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="3" t="s">
+      <c r="J234" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6942,28 +6966,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="3">
+      <c r="A236" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="3">
+      <c r="B236" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="3">
+      <c r="C236" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="3">
+      <c r="E236" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="3">
+      <c r="F236" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="3">
+      <c r="G236" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="3">
+      <c r="H236" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6988,28 +7012,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="3">
+      <c r="B238" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="3">
+      <c r="C238" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="3">
+      <c r="D238" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="3">
+      <c r="E238" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="3">
+      <c r="F238" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="3">
+      <c r="G238" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="3">
+      <c r="H238" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="3">
+      <c r="I238" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7068,10 +7092,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="3" t="s">
+      <c r="J240" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7115,28 +7139,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="3">
+      <c r="A242" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="3">
+      <c r="B242" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="3">
+      <c r="C242" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="3">
+      <c r="E242" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="3">
+      <c r="F242" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="3">
+      <c r="G242" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="3">
+      <c r="H242" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7161,28 +7185,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="3">
+      <c r="B244" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="3">
+      <c r="C244" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="3">
+      <c r="D244" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="3">
+      <c r="E244" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="3">
+      <c r="F244" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="3">
+      <c r="G244" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="3">
+      <c r="H244" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="3">
+      <c r="I244" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7241,10 +7265,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="3" t="s">
+      <c r="J246" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
